--- a/ui-testsuite/src/main/resources/TestData/ATR_imported_test_correctFormat.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/ATR_imported_test_correctFormat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thuy Quynh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Workspace\ui-test\ui-testsuite\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="365">
   <si>
     <t>IB TYPE</t>
   </si>
@@ -1114,6 +1114,9 @@
   </si>
   <si>
     <t>03/01: details now ready to be shared with BT (not complete) 02/23: delivery, pricing and margin specfication in last stages 02/02: ongoing exersise in preparation for FY17 renewal - risk associated with unclear service descpription and price points + BT have a OPEX reduction target of 20% Anniversary contract</t>
+  </si>
+  <si>
+    <t>EOT</t>
   </si>
 </sst>
 </file>
@@ -1583,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FF6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="DA1" sqref="DA1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AQ1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AU2" sqref="AU2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1890,7 +1893,7 @@
         <v>45</v>
       </c>
       <c r="AU1" s="6" t="s">
-        <v>46</v>
+        <v>364</v>
       </c>
       <c r="AV1" s="6" t="s">
         <v>47</v>

--- a/ui-testsuite/src/main/resources/TestData/ATR_imported_test_correctFormat.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/ATR_imported_test_correctFormat.xlsx
@@ -1586,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FF6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AQ1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AU2" sqref="AU2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="DC1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="DD4" sqref="DD4:DE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3194,12 +3194,6 @@
       <c r="DC4" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="DD4" s="12">
-        <v>41944</v>
-      </c>
-      <c r="DE4" s="12">
-        <v>43039</v>
-      </c>
       <c r="DF4" s="2" t="s">
         <v>201</v>
       </c>
